--- a/MercurySrv/StageDatabase.xlsx
+++ b/MercurySrv/StageDatabase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\SoftProjects\Udyni\Tango\MercurySrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Development\Projects\Udyni\TangoDevices\MercurySrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="-15" windowWidth="13905" windowHeight="12975" tabRatio="259"/>
+    <workbookView xWindow="4635" yWindow="-15" windowWidth="13905" windowHeight="12975" tabRatio="259"/>
   </bookViews>
   <sheets>
     <sheet name="StageDatabase_new" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="352">
   <si>
     <t>Name</t>
   </si>
@@ -1079,6 +1079,9 @@
   </si>
   <si>
     <t>Dec. Code</t>
+  </si>
+  <si>
+    <t>M-126.CG1</t>
   </si>
 </sst>
 </file>
@@ -1505,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1516,9 +1519,10 @@
     <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.140625"/>
+    <col min="4" max="5" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="10" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.28515625"/>
     <col min="14" max="14" width="5.28515625"/>
     <col min="15" max="15" width="5.140625"/>
@@ -1607,7 +1611,7 @@
     <col min="102" max="998" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1642,8 +1646,11 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1678,8 +1685,11 @@
       <c r="K2">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1714,8 +1724,11 @@
       <c r="K3">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1750,8 +1763,11 @@
       <c r="K4">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1786,8 +1802,11 @@
       <c r="K5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
@@ -1822,8 +1841,11 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1858,8 +1880,11 @@
       <c r="K7">
         <v>7.0642500000000002E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>7.0642500000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1894,8 +1919,11 @@
       <c r="K8">
         <v>32767</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1930,8 +1958,11 @@
       <c r="K9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1966,8 +1997,11 @@
       <c r="K10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2002,8 +2036,11 @@
       <c r="K11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2038,8 +2075,11 @@
       <c r="K12">
         <v>7077888</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>7077888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2074,8 +2114,11 @@
       <c r="K13">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2110,8 +2153,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2146,8 +2192,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2182,8 +2231,11 @@
       <c r="K16" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2218,8 +2270,11 @@
       <c r="K17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2254,8 +2309,11 @@
       <c r="K18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2290,8 +2348,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2326,8 +2387,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2362,8 +2426,11 @@
       <c r="K21">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2398,8 +2465,11 @@
       <c r="K22" s="5">
         <v>-75</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2434,8 +2504,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2470,8 +2543,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2506,8 +2582,11 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2542,8 +2621,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2578,8 +2660,11 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2614,8 +2699,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -2650,8 +2738,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2686,8 +2777,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2722,8 +2816,11 @@
       <c r="K31" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2758,8 +2855,11 @@
       <c r="K32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2794,8 +2894,11 @@
       <c r="K33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -2830,8 +2933,11 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2866,8 +2972,11 @@
       <c r="K35" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -2902,8 +3011,11 @@
       <c r="K36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2938,8 +3050,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2974,8 +3089,11 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3010,8 +3128,11 @@
       <c r="K39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3167,11 @@
       <c r="K40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -3082,8 +3206,11 @@
       <c r="K41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -3118,8 +3245,11 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -3154,8 +3284,11 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3190,8 +3323,11 @@
       <c r="K44">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -3226,8 +3362,11 @@
       <c r="K45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3262,8 +3401,11 @@
       <c r="K46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -3298,8 +3440,11 @@
       <c r="K47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -3334,8 +3479,11 @@
       <c r="K48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -3370,8 +3518,11 @@
       <c r="K49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
@@ -3406,8 +3557,11 @@
       <c r="K50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -3442,8 +3596,11 @@
       <c r="K51">
         <v>10000</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3478,8 +3635,11 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3514,8 +3674,11 @@
       <c r="K53" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>158</v>
       </c>
@@ -3550,8 +3713,11 @@
       <c r="K54" s="3">
         <v>320</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
@@ -3586,8 +3752,11 @@
       <c r="K55" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>160</v>
       </c>
@@ -3622,8 +3791,11 @@
       <c r="K56" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
@@ -3658,8 +3830,11 @@
       <c r="K57" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>163</v>
       </c>
@@ -3694,8 +3869,11 @@
       <c r="K58" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>162</v>
       </c>
@@ -3728,6 +3906,9 @@
         <v>900000</v>
       </c>
       <c r="K59" s="3">
+        <v>900000</v>
+      </c>
+      <c r="L59" s="3">
         <v>900000</v>
       </c>
     </row>
